--- a/500all/speech_level/speeches_CHRG-114hhrg93158.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93158.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. The subcommittee will come to order. First, I would like to welcome our new members to the subcommittee. As we begin this new Congress, I look forward to working with my wonderful friend, the ranking member, Mr. Deutch, the returning members of the subcommittee, and our new members, so that we can continue to work in a bipartisan manner to conduct our oversight responsibilities and further advance our foreign policy initiatives and priorities in the region.    After recognizing myself and Ranking Member Deutch for 5 minutes each for our opening statements, I will then recognize any other member seeking recognition for 1 minute.    We will then hear from our witnesses, and without objection, the witnesses' prepared statements will be made a part of the record, and members may have 5 days to insert statements and questions for the record subject to the length limitations in the rules.    I would like to remind audience members that disruption of committee proceedings is against the law and will not be tolerated, although wearing themed shirts while seated in the hearing room is permissible, holding up signs during the proceedings is not. Any disruptions will result in a suspension of the proceedings until the Capitol Police can restore order. And we want you to stay because it is going to be a good hearing. So please don't leave or let yourself be left.    The Chair will now recognize herself for 5 minutes.    In the wake of the administration's failed attempt at achieving an Israeli-Palestinian peace agreement last spring, Abu Mazen and the Palestinian leadership have increased in both intensity and pace their scheme to achieve unilaterally what they have refused to do so directly with the democratic Jewish State of Israel, which is establish an independent state of Palestine. The latest and perhaps most dangerous manifestation of this push was when Abu Mazen and the Palestinians acceded to the Rome Statute to join the International Criminal Court after last December's Palestinian-backed U.N. Security Council resolution failed. That the administration was unable to prevent the Palestinian leadership from going to the U.N. and then again to the ICC, underscores the notion that our credibility and leverage have waned so much to the point where our diplomacy efforts end up doing perhaps more harm than good. The situation and these problems perhaps could have been avoided had the administration taken a tougher stance with the PA using the only real leverage that we have, namely the hundreds of millions of dollars that we give each year, instead of coddling it and refusing to cut off the aid, hoping and wishing that Abu Mazen would change his tune.    President Obama should have immediately suspended all aid to the PA once the unity deal between Fatah and Hamas was announced. The letter and the intent of the law is clear: No funding can go to a power-sharing government that includes Hamas or a government that is backed by the terrorist group. Instead, the administration interpreted that the new PA Government was formed in a manner that did not trigger this law. That was a huge mistake, as it once again undermined our ability and credibility on the world stage, only served to encourage Abu Mazen to further challenge the U.S., to further challenge Israel, believing that he had been given the implicit support of the administration.    And now we once again find ourselves in a situation where the administration is refusing to follow the letter and the intent of the law in the wake of the Palestinians joining the ICC and the ICC opening an investigation into Israel over alleged war crimes. The ICC has already shown its overzealousness, which has caused concern. It admitted a non-state party. It is attempting to claim jurisdiction over a non-member state. It has signalled that it is willing to use political determination rather than legal ones, and it is essentially defining Israel's borders and the borders of a non-existent state of Palestine, which is completely beyond its jurisdiction.    U.S. law is clear that should the Palestinians join and initiate or support an investigation into Israel, all funding for the PA must be suspended. Yet the administration not only continued funding, but it requested $370 million for the PA in the President's budget released just 2 days ago. Congress must not allow the President to continue to ignore the letter and the intent of the laws that we pass. Abu Mazen must be held accountable for his actions, and the PLO must be held accountable, and we must also hold the President accountable to uphold the laws.    It is long past time that the administration reassess its policy approach to Israel and the Palestinians. What has resulted since the administration failed to achieve a bilateral agreement between the two parties last spring is a litany of foreign policy failures, one after the other. First, Abu Mazen and PA's ruling party, Fatah, and the designated terrorist group Hamas formed a unity government. Tensions escalated between Gaza and Israel, aided by the incitement from Abu Mazen which led to the brazen kidnapping and brutal murder of three Israeli teens by members of Hamas.    Hamas launched a full rocket attack campaign against Israel which then ultimately resulted in last summer's conflict in Gaza. Despite this, the administration continues to show its tone-deafness when it comes to the Israelis and the Palestinians. And it is easy to see how its efforts at peace last year actually encouraged Abu Mazen to push forward with his unilateral statehood scheme, which has brought us to where we are today. Yet the administration focuses its time and effort to alienate our ally Israel and has taken unprecedented steps to openly chastise and criticize Israeli leadership in the media. Talk about misplaced priorities and failed diplomacy.    And with that, I am pleased to yield to my friend, the ranking member Mr. Deutch of Florida.</t>
   </si>
   <si>
     <t>412385</t>
   </si>
   <si>
-    <t>Theodore E. Deutch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you, Chairwoman Ros-Lehtinen, and let me also take just a moment to welcome back the members of this committee and our three new members as well. I would like to note that Chairwoman Ros-Lehtinen and I have worked to make this committee function in a bipartisan way, and while their may be differences of opinion, we appreciate the way the members of this committee have found areas to work together. And we hope that that spirit of bipartisan continues this Congress.    Thanks to our panel for being here. You are familiar faces to this subcommittee, and we welcome you back.    There is no doubt that this hearing comes at an extraordinary time in Israeli-Palestinian relations. After nearly 2 years of dialogue and talks, the peace process is stalled, and we are finally facing what many of us have feared, an effort by the Palestinians to circumvent negotiations altogether.    But achieving a state through unilateral measures has failed, and it will always fail. Nevertheless in a move that will only set back his cause, President Abbas went to the International Criminal Court, and despite U.S. efforts to halt PA's accession, U.N. Secretary General Ban Ki-Moon has announced that the PA will become members of the ICC on April 1. Perhaps more importantly, the PA has already ceded territorial jurisdiction to the ICC, allowing for the initial steps of an investigation. And as we will hear from our witnesses today, the ICC has never undertaken a case like this, and it is unknown if this moves forward, how long an investigation might take and what the implications might be.    This kind of unilateral action is unacceptable. It is an egregious breach of U.S. trust, and despite the repeated warnings of Congress and the administration, despite changes made in U.S. law to respond to these actions, President Abbas chose to take these reckless actions that do nothing to advance peace, nothing to advance peace. And so, in response, I and other senior members of this committee have informed the administration that in the meantime, no new aid to support the PA will be approved. Other strong measures of disfavor will be considered by this committee and by this Congress.    Now let me be clear: I don't want to see the breakdown of cooperation between the PA and Israel. It is in both of their interests to continue strong security cooperation in the West Bank. This coordination prevents terrorist attacks. It leads to the neutralization of Hamas operatives, and it saves innocent Israeli and Palestine lives. The ending of such cooperation could lead to increased violence and attacks on Israel. And I hope that those in the Palestine authority who use a cutoff in security operation as a threat understand the implications of this for their people.    Madam Chairman, so many of us want a genuine peace, a peace with two states for two people. I want to see Israel continue to thrive as a safe and secure democracy, and I would like to see stability and success for the Palestinian people. But the actions that we have seen by President Abbas over the last few months move us further and further from this goal. Longstanding U.N. resolutions, as well as U.S. and Quartet policy, states that lasting peace will only come through direct negotiations. There are hard choices that are going to have to be made on both sides, but simply refusing to negotiate, circumventing the established process, not getting back to the President of the United States to respond to proposals during negotiations, suggests a clear unwillingness to make those hard choices. Israel faces terrorist threats on every one of its borders. Hezbollah is armed with tens of thousands of rockets, and as we saw last week, is willing to attack. Hamas digs tunnels and launches rockets at Israeli civilians. Terrorist in the Sanai launch attacks in the south, not to mention the existential threat of a nuclear-armed Iran. So for those of us who seek peace, we know that Israel's safety and security must never be compromised, which is why many of us here have a hard time understanding why anyone who believes in peace would ever choose to partner in a government with a terrorist organization, one that launched over 3,000 rockets at civilians this summer, one that has never recognized Israel's right to exist, has not recognized even Israel's very right to exist, has never renounced violence, and continues to incite violence on a daily basis.    So what happens next? What are the ramifications if the ICC continues to move forward with an investigation? Well, U.S. law is clear. There will be no aid to the Palestinian Authority, but more broadly, these actions fundamentally have changed the relationship between the United States and the Palestinian Authority. And the question that I have for the panel is, have we reached the place where negotiations are simply out of reach?    And I look forward to hearing from our wonderful group of panelists today, and I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Madam Chairman, and you are exactly right: Funding should have stopped the minute that unity government was formed. That is what the law says. I don't think the administration was faithful to that.    It is interesting, you have Hamas and Fatah, they are going to go and accuse Israel of war crimes, and yet they have been conducting terror attacks, suicide attacks, rocket attacks, using human shields. When Israel tries to defend itself, they have consistently violated international law. So it is a curious thing to do. I think the reason that they are doing it is because they see that Israel is under siege by hostile forces, now Hezbollah even more so. And I think this effort is designed to impose political costs on Israel for defending itself against attacks by a group that desire Israel's destruction.    And if you can launch attacks from Gaza, and then when Israel responds, the world blames Israel, then they may not be willing to respond as forcefully as they need to to defend their citizens. So we should call this gambit what it is, and we should respond with the power of the purse.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Chairman Ros-Lehtinen and Ranking Member Deutch, for calling this timely hearing today.    And thank you to our witnesses for offering your testimony.    We know that lasting peace will only come about as a result of a direct set of negotiations that ultimately lead to a two-state solution. This is the only viable way to resolve the conflict between Israel and the Palestinian people, not through unilateral action. The breakdown of talks led by Secretary Kerry and the subsequent military conflict last summer were extremely disappointing. And the Palestinian decision to form a unity government with Hamas, a terrorist organization, and then to pursue recognition at international institutions, including the ICC, in complete disregard of their agreements made in accordance with the Oslo Peace Accords has seriously jeopardized the possibility of a peaceful solution.    I also fear this move, and the inevitable reaction by Israel and ultimately the United States if a case does move forward, will jeopardize the viability of the Palestinian Authority leading to a dangerous power vacuum in the Palestinian territories.    I look forward to the testimony of our witnesses and hope that we can get some clarity on what this development means for the future of U.S. relations with Israel and the Palestinian Authority.    I thank you, and I yield back.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>412525</t>
   </si>
   <si>
-    <t>Ted S. Yoho</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Madam Chair.    I look forward to hearing from the panel with concrete suggestions on how we can change our policy so we don't have this meeting next year talking about the same things. We need a paradigm shift, and I look forward to hearing from you your suggestions so we can implement that and talk about baseball next time you come here.</t>
   </si>
   <si>
@@ -109,9 +94,6 @@
     <t>412652</t>
   </si>
   <si>
-    <t>Brendan F. Boyle</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Boyle. As a new member, I have to learn to hit the button that says talk.    Thank you, Madam Chair and also Ranking Member Deutch.    I would just briefly say that with the ICC application, something that has happened in the last several months that deeply concerns me is the increase in an effort in the international community to isolate and stigmatize Israel. I am deeply concerned that this latest effort is merely yet another attempt in this long-going campaign, especially by those countries, not the United States, but other countries in Europe and elsewhere that are otherwise allies of the U.S. So I am very interested in what we can do as a country to stand up for Israel, to stand up for human rights of all people, and to ensure that the ICC isn't corrupted and used and abused in a way that is really just about bashing Israel. Thank you.</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t>412604</t>
   </si>
   <si>
-    <t>Curt Clawson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you for coming today and sharing your time and expertise, and I really appreciate it, and I am looking forward to what you have to say about security in the region.    You know, as I read about this process, it feels unclear to me that we are going to be more secure tomorrow than we are today on either side of the conflict, and that really is the bottom line. If more people die because of this process, then what are we doing? So I am really interested to hear what you all have to say about everybody's security. There is just too much dying. Thank you.</t>
   </si>
   <si>
@@ -133,9 +112,6 @@
     <t>412560</t>
   </si>
   <si>
-    <t>Grace Meng</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Meng. Thank you, Madam Chair and Ranking Member Deutch for calling this hearing and our distinguished witnesses for joining us today. In pursuing legal proceedings against Israel in the International Criminal Court, the Palestinian Authority could do irreparable damage to the peace process and escalate the conflict. Furthermore, I am concerned that the PA's actions here contravene both international law and the spirit of existing agreements between Israel and the PA. We must be clear that joining the ICC is not a viable approach for the Palestinians. I look forward to today's testimony, particularly that relating to the legal questions here. I yield back.</t>
   </si>
   <si>
@@ -145,9 +121,6 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Chairwoman Ros-Lehtinen and Ranking Member Deutch, for hosting this important hearing, and thanks to each of our panelists for being here today.    Time and time again the world has seen over 3,000 terrorist rocket attacks which originate from Palestinian-backed terror organization Hamas. As we discuss Palestine's desire to become more integrated within the international community, it should stop terrorism against Israeli women and children. In an effort to bring many of these actions into light, the Web site, Palestinian Media Watch, palwatch.org, does an excellent job of highlighting instances of aggression toward Israel which otherwise may not be told. I support this Web site in its mission.    The U.S. must stand firmly with Israel, our strongest ally in the region. And I fully support Prime Minister Benjamin Netanyahu as he seeks to promote peace in the region.</t>
   </si>
   <si>
@@ -157,9 +130,6 @@
     <t>412574</t>
   </si>
   <si>
-    <t>Randy K. Weber, Sr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weber. Thank you, Madam Chair. I have been following those events as well, and the gentleman from South Carolina is correct. It seems that the majority, there has been a lot of rockets aimed at Israel. They seem to be going that direction. So those who are crying foul, may indeed be acting the most foul, if I can use that play on words. So I am looking forward to this discussion and see that we do what we can to protect our ally.</t>
   </si>
   <si>
@@ -169,9 +139,6 @@
     <t>412646</t>
   </si>
   <si>
-    <t>Lee M. Zeldin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Zeldin. Thank you, Madam Chairwoman and Ranking Member Deutch, my mother's Congressman, Congressman Deutch. I thank you for holding this hearing today.    And my background before going into elected office was in the military, and first I was a military intelligence officer and then a JAG officer. And in our preparations, whether it is Iraq or Afghanistan or elsewhere, we focus on rules of law, rules of engagement, law of war. We are used to a conventional fight in the past, and we have a doctrine that should be respected when there is war. And the fact that you have Hamas living amongst neighbors, women and children, when you have an important, proportionate response, collateral damage ends up increasing when the threat lives with women and children. And I think that one of the things that we really need to tackle in the dialogue and the conflict between Israel and the conversation with the Palestinian Authority is the unnecessary collateral damage that is taking place. And the Palestinian Authority has a responsibility to route that out from within their ranks, and Israel has a responsibility as well. All of us do, whenever we are engaged in any type of a conflict.    But the amount of collateral damage and civilian deaths taking place across the borders from Israel is a responsibility of the Palestinian Authority to do more for Hamas not to live amongst the ranks of the women and children.    I thank you again, Chairwoman, for doing this hearing.</t>
   </si>
   <si>
@@ -181,9 +148,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. I thank the chair. I am glad to have this panel and this hearing. I just want to say I probably am somewhat demure from some of my colleagues with respect to the necessity of continuing to provide economic development assistance to the Palestinian Authority.    But having said that, Congress did put conditions on that aid last year, and those conditions have to do with the whole question of the ICC. And I know the State Department is reviewing as we speak whether that provision is now triggered. So hopefully we can persuade the Palestinian Authority that unilateral action is not in its best interest, nor ours, and that as we move forward, it has to be in the context of a broader peace negotiation. And I would hope that at this hearing we could illuminate that issue and have more clarity as to what the U.S. policy should be moving forward.    With that, I yield back.</t>
   </si>
   <si>
@@ -199,9 +163,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Schanzer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schanzer. Chairman Ros-Lehtinen, Ranking Member Deutch, members of the committee. On behalf of FDD, thank you for inviting me to testify today.    After a decade of lobbying the international community for recognition at the U.N., the Palestinians are now poised to leverage their gains and wage lawfare at the International Criminal Court. The goal for Palestinian President Mahmoud Abbas has been the same since he launched his diplomatic campaign in 2005, and that is to force the Israelis to relinquish territory or other meaningful concessions and to do so outside the scope of bilateral negotiations.    The dangers of this campaign cannot be understated. For one, these efforts are not likely to resolve the conflict peacefully. Rather, they will keep the embers of conflict glowing. More importantly, while communication and cooperation still exist between Ramallah and Washington, it is clear that Abbas and his lieutenants no longer feel beholden to the United States despite the hundreds of millions of dollars in assistance we provide every year.    Madam Chairman, threats to cut assistance to the Palestinian Authority have not had the desired impact in recent years. The reason for this is simple. Washington is dependent upon the PA for continued security cooperation with Israel. Abbas knows this, and this is why he feels comfortable testing the patience of legislators and the President.    There are, however, steps that we can take to reassert American leverage in the West Bank, protect American interests, empower new moderate Palestinian leadership, and safeguard Israeli security concerns.    First, Congress should strongly consider establishing a lawfare office similar to that established by Israel. Such an office can help the U.S. Government battle lawfare against us in both defense of U.S. officials and perhaps even our allies as well. Along these lines, we can leverage our Article 98 agreements with foreign governments. The U.S. Government already has about 100 of these agreements which ensure that U.S. persons are not surrendered to the jurisdiction of the ICC. Congress should ensure that the U.S. enters into as many of these agreements as possible and perhaps even modify them to include its key allies, such as Israel.    In the meantime, we have to deter the Palestinians from their current course. One way to do that is to work with our intelligence community to declassify information about Palestine terrorism, illicit activity, and human rights abuses dating back to November 29, 2012, when the U.N. General Assembly recognized Palestine as a non-member observer state. This would send a message to the Palestine leadership that it is just as susceptible, if not more so, to ICC prosecution.    Congress must also take steps to weaken the PLO. It is the PLO that is pursuing Israel at the ICC, and it is the PLO that is waging the diplomatic campaign at the U.N. Moreover, the PLO still has terrorist groups under its umbrella. Its leaders are unelected. Its decisionmaking is opaque, and its finances are obscured from the public eye. Its very existence enables a dysfunctional system. At any given time, we don't know whether it is the PLO, the Fatah faction, or the PA that is speaking in the Palestinians' in the name. If the goal is to hold the Palestinian leadership responsible for its actions, it is time to empower the Palestinian Government we seek to engage and to make the PLO obsolete. To that end we must shut down the PLO Embassy in Washington and to take steps to weaken the organization worldwide.    In addition, we should make plans for Mahmoud Abbas to go. He is a huge part of the problem. Once considered a reformer, he is now 10 years into a 5-year Presidential term. He is the head of the Fatah faction and the PLO. So long as he maintains a stranglehold over the Palestinian political system, the Palestinians will be taken in by gimmicks like the U.N. recognition campaign and the ICC. We have to begin to plan for new elections.    However, we cannot only focus on the West Bank political structures. The Hamas-Fatah split remains a challenge that will encumber both regional peace and Palestinian reform. Hamas must be removed from the Gaza Strip and from the political process if change is to take root.    Finally, Washington must return to its role as arbiter of the peace process. I don't believe that peace between the current leaders is likely, nor do I believe that this administration has earned the trust of either side. However, Washington cannot abdicate its role as the honest broker. Once we return to that role, we will have an opportunity to call for a halt to all unilateral action and guide this conflict to a more constructive dynamic.    Thank you for the opportunity to testify today, and I look forward to answering your questions.</t>
   </si>
   <si>
@@ -211,9 +172,6 @@
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Professor, you are recognized. Thank you.</t>
   </si>
   <si>
-    <t>Kontorovich</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kontorovich. Madam Chairwoman, Ranking Member Deutch, honorable members of the committee, thank you for inviting me to testify. In my testimony today, I am going to focus on three issues: Why the Palestinian Authority's effort to join the International Criminal Court is dangerous, not just for Israel but equally for the United States; why the Court is likely to be biased toward Israel; and, finally, remedial options under United States law.    The Palestinian campaign in the ICC threatens not just Israel but U.S. diplomatic and security interests as well. Crucially, America like Israel, is not a member state of the International Criminal Court and has chosen to not subject itself to the court's jurisdiction. Thus America and Israel find themselves in the same boat in terms of wanting to avoid precedents that would allow other entities to forcibly subject them to ICC process.    There are five dangerous precedents that this could set. First of all, the Palestinians are seeking to establish a precedent where a majority vote of the General Assembly is all it takes to secure jurisdiction over a non-member state. That is an extremely dangerous precedent for the United States. The United States in creating the United Nations chose not to give any binding powers to the General Assembly, but rather to screen all of those through the Security Council. The notion that a simple majority vote of the General Assembly could create jurisdiction over the U.S. servicemen is a very dangerous one. One could imagine Boko Haram or ISIS petitioning the General Assembly and, on a good day, getting a majority vote to exercise jurisdiction over U.S. troops.    All of the particular legal issues that the Palestinians are seeking to establish and need to win on at the ICC are ones that would be very dangerous for the United States. I would like to remind the subcommittee that the United States is currently subject to a preliminary investigation about the role of U.S. troops in the treatment of detainees in Afghanistan. It has been thought there are some major principles that insulate Western democracies like the United States, the notions of complementarity and gravity.    Complementarity means that if a country conducts its own investigations or has a well-functioning legal system that investigates its troops, it does not have to worry about the ICC stepping in. Now the question is what level of abstraction you apply complementarity on. So while the United States is a well-functioning democracy, if it chooses not to investigate every particular incident, if it chooses not to investigate the roles of senior civilian leaders in alleged incidents, and the ICC chooses to step in, this would be something the United States would be very uncomfortable with. Yet nonetheless, that is exactly what the Palestinians are trying to establish vis-aa-vis Israel. Israel also has a well-functioning criminal justice system. If the ICC is to take any steps forward, it would require defining complementarity at such a low level that the United States also would not be insulated by this principle.    Then there is the principle of gravity, that the ICC is reserved for the worst of the worst international crimes, mass atrocities, which its charter refers to. As a result, isolated or lower level crimes, the ICC can't deal with because in a world of millions killed in conflicts around the world, obviously the ICC can't deal with everything and needs to prioritize. The United States and other Western democracies have been shielded by this principle. This would be a principle that prevents an ICC investigation of alleged abuses in Afghanistan.</t>
   </si>
   <si>
@@ -229,9 +187,6 @@
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Ms. Pletka is recognized.</t>
   </si>
   <si>
-    <t>Pletka</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Pletka. Thank you, Madam Chairwoman. It is a pleasure to be back.</t>
   </si>
   <si>
@@ -242,9 +197,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Mr. Makovsky.</t>
-  </si>
-  <si>
-    <t>Makovsky</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Makovsky. Thank you very much, Madam Chairwoman Ros-Lehtinen, Ranking Member Deutch, members of the committee. Thank you for inviting me here today.    First, it is worth focusing on what is at stake for the Palestinians and for the ICC itself. Clearly, the Palestinian move for membership at the ICC is deepening the chasm between Israelis and Palestinians. The move is part of a Palestinian two-prong international strategy: Involve the U.N. Security Council; and go to the ICC.    For now, they have given up on direct talks with Israel. Of course, this is wrong. Direct talks are the only way to solve the problem and to promote peace. For the ICC, they also seem to be veering off course. For its part, the original ICC purpose has been to deal with mass atrocities and not serve as another politicized U.N. agency. If the ICC wants to be taken seriously, it should remain true to its origins and avoid politicization.    So what has just happened? When PA leader Mahmud Abbas signed the Rome Statute, he allowed for authority retroactive to June 13, just hours after three Israeli youths were kidnapped and subsequently murdered in the West Bank, to permit an investigation into last summer's Gaza war. ICC Prosecutor Fatou Bensouda announced a few weeks later that she would launch a preliminary examination without first determining if the PA is eligible to raise such a claim. Only Bensouda could determine if and when the preliminary examination ends, and transitions to a full-fledged investigation.    While the ICC previously inserted itself in the Congo war, there there were over 5 million deaths. In Gaza, the death toll was approximately 2,000 Palestinians, half of which Israel believes to be terrorists, and 65 Israeli soldiers.    The effect of this Palestinian approach is further deterioration in the relationship between Prime Minister Benjamin Netanyahu and President Abbas. In protest of the PA strategy, Israel is withholding $127 million each month in Palestinian tax revenue, which is unlikely to be released until a new Israeli Government is formed, perhaps in late May. The Israeli move, it should point out, given that it is a monthly move, is financially more consequential than anything the United States is undertaking.    Historically, the ICC investigations could take years. And so far, only two Congolese warlords have been convicted.    Israel's situation, needless to say, is dramatically different. It is a democracy. The ICC has no jurisdiction where there is a functioning judiciary. Following the Gaza war, Israel is in the process of indicting four Israeli soldiers for potential abuses. And the IDF has invited all NGOs--all--to come forward with evidence. In short, Israel's democratic judicial process negates the need for the ICC to step in. The consequences against Israel are not just going to be felt down the road. The mere investigation of Israel by the ICC is designed to put Israel under a cloud and to give a boost to the boycott, divest, and sanction--BDS--movement. Throughout the Gaza war Israel----</t>
@@ -844,11 +796,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -868,13 +818,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -896,11 +844,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -920,13 +866,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -948,11 +892,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -972,13 +914,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1000,11 +940,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1024,13 +962,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1052,11 +988,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1076,13 +1010,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1104,11 +1036,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1128,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1156,11 +1084,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1180,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1208,11 +1132,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1232,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1260,11 +1180,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1284,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" t="s">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1312,11 +1228,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1336,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" t="s">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1364,11 +1276,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1388,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1416,11 +1324,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1440,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1468,11 +1372,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1492,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" t="s">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1520,11 +1420,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1546,11 +1444,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1570,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" t="s">
-        <v>65</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1598,11 +1492,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1622,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" t="s">
-        <v>65</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1650,11 +1540,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1676,11 +1564,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1700,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35" t="s">
-        <v>71</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1728,11 +1612,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1752,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" t="s">
-        <v>71</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1780,11 +1660,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1806,11 +1684,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1830,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
-      </c>
-      <c r="G40" t="s">
-        <v>76</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1858,11 +1732,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1884,11 +1756,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1908,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" t="s">
-        <v>76</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1936,11 +1804,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1962,11 +1828,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1986,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" t="s">
-        <v>65</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2014,11 +1876,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2038,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" t="s">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2066,11 +1924,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2090,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
         <v>71</v>
-      </c>
-      <c r="H50" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2118,11 +1972,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2142,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" t="s">
-        <v>71</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2170,11 +2020,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2194,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2220,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55" t="s">
+        <v>48</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
         <v>76</v>
-      </c>
-      <c r="H55" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2246,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2272,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
-      </c>
-      <c r="G57" t="s">
-        <v>76</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2298,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2324,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
-      </c>
-      <c r="G59" t="s">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2350,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2376,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2402,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
-      </c>
-      <c r="G62" t="s">
-        <v>71</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2428,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2454,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
-      </c>
-      <c r="G64" t="s">
-        <v>71</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2480,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2506,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
-      </c>
-      <c r="G66" t="s">
-        <v>65</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2532,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2558,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>60</v>
-      </c>
-      <c r="G68" t="s">
-        <v>65</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2584,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2610,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
-      </c>
-      <c r="G70" t="s">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2636,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2664,11 +2476,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2688,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2714,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>60</v>
-      </c>
-      <c r="G74" t="s">
-        <v>65</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2740,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
-      </c>
-      <c r="G75" t="s">
-        <v>76</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2766,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>60</v>
-      </c>
-      <c r="G76" t="s">
-        <v>71</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2792,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>60</v>
-      </c>
-      <c r="G77" t="s">
-        <v>76</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2818,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2844,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>60</v>
-      </c>
-      <c r="G79" t="s">
-        <v>65</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2870,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2898,11 +2692,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2922,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2948,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>60</v>
-      </c>
-      <c r="G83" t="s">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2974,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3000,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>60</v>
-      </c>
-      <c r="G85" t="s">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3026,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3052,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
-      </c>
-      <c r="G87" t="s">
-        <v>65</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3078,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3104,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>60</v>
-      </c>
-      <c r="G89" t="s">
-        <v>71</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3130,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3156,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>60</v>
-      </c>
-      <c r="G91" t="s">
-        <v>71</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3182,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3208,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>60</v>
-      </c>
-      <c r="G93" t="s">
-        <v>76</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3234,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3260,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>60</v>
-      </c>
-      <c r="G95" t="s">
-        <v>76</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3286,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3312,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>60</v>
-      </c>
-      <c r="G97" t="s">
-        <v>65</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3338,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3366,11 +3124,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3390,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
-      </c>
-      <c r="G100" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3416,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>60</v>
-      </c>
-      <c r="G101" t="s">
-        <v>76</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3442,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
-      </c>
-      <c r="G102" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3468,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>60</v>
-      </c>
-      <c r="G103" t="s">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3494,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
-      </c>
-      <c r="G104" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3520,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>60</v>
-      </c>
-      <c r="G105" t="s">
-        <v>76</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3548,11 +3292,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93158.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93158.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Ros-Lehtinen</t>
+  </si>
+  <si>
+    <t>Ileana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. The subcommittee will come to order. First, I would like to welcome our new members to the subcommittee. As we begin this new Congress, I look forward to working with my wonderful friend, the ranking member, Mr. Deutch, the returning members of the subcommittee, and our new members, so that we can continue to work in a bipartisan manner to conduct our oversight responsibilities and further advance our foreign policy initiatives and priorities in the region.    After recognizing myself and Ranking Member Deutch for 5 minutes each for our opening statements, I will then recognize any other member seeking recognition for 1 minute.    We will then hear from our witnesses, and without objection, the witnesses' prepared statements will be made a part of the record, and members may have 5 days to insert statements and questions for the record subject to the length limitations in the rules.    I would like to remind audience members that disruption of committee proceedings is against the law and will not be tolerated, although wearing themed shirts while seated in the hearing room is permissible, holding up signs during the proceedings is not. Any disruptions will result in a suspension of the proceedings until the Capitol Police can restore order. And we want you to stay because it is going to be a good hearing. So please don't leave or let yourself be left.    The Chair will now recognize herself for 5 minutes.    In the wake of the administration's failed attempt at achieving an Israeli-Palestinian peace agreement last spring, Abu Mazen and the Palestinian leadership have increased in both intensity and pace their scheme to achieve unilaterally what they have refused to do so directly with the democratic Jewish State of Israel, which is establish an independent state of Palestine. The latest and perhaps most dangerous manifestation of this push was when Abu Mazen and the Palestinians acceded to the Rome Statute to join the International Criminal Court after last December's Palestinian-backed U.N. Security Council resolution failed. That the administration was unable to prevent the Palestinian leadership from going to the U.N. and then again to the ICC, underscores the notion that our credibility and leverage have waned so much to the point where our diplomacy efforts end up doing perhaps more harm than good. The situation and these problems perhaps could have been avoided had the administration taken a tougher stance with the PA using the only real leverage that we have, namely the hundreds of millions of dollars that we give each year, instead of coddling it and refusing to cut off the aid, hoping and wishing that Abu Mazen would change his tune.    President Obama should have immediately suspended all aid to the PA once the unity deal between Fatah and Hamas was announced. The letter and the intent of the law is clear: No funding can go to a power-sharing government that includes Hamas or a government that is backed by the terrorist group. Instead, the administration interpreted that the new PA Government was formed in a manner that did not trigger this law. That was a huge mistake, as it once again undermined our ability and credibility on the world stage, only served to encourage Abu Mazen to further challenge the U.S., to further challenge Israel, believing that he had been given the implicit support of the administration.    And now we once again find ourselves in a situation where the administration is refusing to follow the letter and the intent of the law in the wake of the Palestinians joining the ICC and the ICC opening an investigation into Israel over alleged war crimes. The ICC has already shown its overzealousness, which has caused concern. It admitted a non-state party. It is attempting to claim jurisdiction over a non-member state. It has signalled that it is willing to use political determination rather than legal ones, and it is essentially defining Israel's borders and the borders of a non-existent state of Palestine, which is completely beyond its jurisdiction.    U.S. law is clear that should the Palestinians join and initiate or support an investigation into Israel, all funding for the PA must be suspended. Yet the administration not only continued funding, but it requested $370 million for the PA in the President's budget released just 2 days ago. Congress must not allow the President to continue to ignore the letter and the intent of the laws that we pass. Abu Mazen must be held accountable for his actions, and the PLO must be held accountable, and we must also hold the President accountable to uphold the laws.    It is long past time that the administration reassess its policy approach to Israel and the Palestinians. What has resulted since the administration failed to achieve a bilateral agreement between the two parties last spring is a litany of foreign policy failures, one after the other. First, Abu Mazen and PA's ruling party, Fatah, and the designated terrorist group Hamas formed a unity government. Tensions escalated between Gaza and Israel, aided by the incitement from Abu Mazen which led to the brazen kidnapping and brutal murder of three Israeli teens by members of Hamas.    Hamas launched a full rocket attack campaign against Israel which then ultimately resulted in last summer's conflict in Gaza. Despite this, the administration continues to show its tone-deafness when it comes to the Israelis and the Palestinians. And it is easy to see how its efforts at peace last year actually encouraged Abu Mazen to push forward with his unilateral statehood scheme, which has brought us to where we are today. Yet the administration focuses its time and effort to alienate our ally Israel and has taken unprecedented steps to openly chastise and criticize Israeli leadership in the media. Talk about misplaced priorities and failed diplomacy.    And with that, I am pleased to yield to my friend, the ranking member Mr. Deutch of Florida.</t>
   </si>
   <si>
     <t>412385</t>
   </si>
   <si>
+    <t>Deutch</t>
+  </si>
+  <si>
+    <t>Theodore</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you, Chairwoman Ros-Lehtinen, and let me also take just a moment to welcome back the members of this committee and our three new members as well. I would like to note that Chairwoman Ros-Lehtinen and I have worked to make this committee function in a bipartisan way, and while their may be differences of opinion, we appreciate the way the members of this committee have found areas to work together. And we hope that that spirit of bipartisan continues this Congress.    Thanks to our panel for being here. You are familiar faces to this subcommittee, and we welcome you back.    There is no doubt that this hearing comes at an extraordinary time in Israeli-Palestinian relations. After nearly 2 years of dialogue and talks, the peace process is stalled, and we are finally facing what many of us have feared, an effort by the Palestinians to circumvent negotiations altogether.    But achieving a state through unilateral measures has failed, and it will always fail. Nevertheless in a move that will only set back his cause, President Abbas went to the International Criminal Court, and despite U.S. efforts to halt PA's accession, U.N. Secretary General Ban Ki-Moon has announced that the PA will become members of the ICC on April 1. Perhaps more importantly, the PA has already ceded territorial jurisdiction to the ICC, allowing for the initial steps of an investigation. And as we will hear from our witnesses today, the ICC has never undertaken a case like this, and it is unknown if this moves forward, how long an investigation might take and what the implications might be.    This kind of unilateral action is unacceptable. It is an egregious breach of U.S. trust, and despite the repeated warnings of Congress and the administration, despite changes made in U.S. law to respond to these actions, President Abbas chose to take these reckless actions that do nothing to advance peace, nothing to advance peace. And so, in response, I and other senior members of this committee have informed the administration that in the meantime, no new aid to support the PA will be approved. Other strong measures of disfavor will be considered by this committee and by this Congress.    Now let me be clear: I don't want to see the breakdown of cooperation between the PA and Israel. It is in both of their interests to continue strong security cooperation in the West Bank. This coordination prevents terrorist attacks. It leads to the neutralization of Hamas operatives, and it saves innocent Israeli and Palestine lives. The ending of such cooperation could lead to increased violence and attacks on Israel. And I hope that those in the Palestine authority who use a cutoff in security operation as a threat understand the implications of this for their people.    Madam Chairman, so many of us want a genuine peace, a peace with two states for two people. I want to see Israel continue to thrive as a safe and secure democracy, and I would like to see stability and success for the Palestinian people. But the actions that we have seen by President Abbas over the last few months move us further and further from this goal. Longstanding U.N. resolutions, as well as U.S. and Quartet policy, states that lasting peace will only come through direct negotiations. There are hard choices that are going to have to be made on both sides, but simply refusing to negotiate, circumventing the established process, not getting back to the President of the United States to respond to proposals during negotiations, suggests a clear unwillingness to make those hard choices. Israel faces terrorist threats on every one of its borders. Hezbollah is armed with tens of thousands of rockets, and as we saw last week, is willing to attack. Hamas digs tunnels and launches rockets at Israeli civilians. Terrorist in the Sanai launch attacks in the south, not to mention the existential threat of a nuclear-armed Iran. So for those of us who seek peace, we know that Israel's safety and security must never be compromised, which is why many of us here have a hard time understanding why anyone who believes in peace would ever choose to partner in a government with a terrorist organization, one that launched over 3,000 rockets at civilians this summer, one that has never recognized Israel's right to exist, has not recognized even Israel's very right to exist, has never renounced violence, and continues to incite violence on a daily basis.    So what happens next? What are the ramifications if the ICC continues to move forward with an investigation? Well, U.S. law is clear. There will be no aid to the Palestinian Authority, but more broadly, these actions fundamentally have changed the relationship between the United States and the Palestinian Authority. And the question that I have for the panel is, have we reached the place where negotiations are simply out of reach?    And I look forward to hearing from our wonderful group of panelists today, and I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>412526</t>
   </si>
   <si>
+    <t>DeSantis</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Madam Chairman, and you are exactly right: Funding should have stopped the minute that unity government was formed. That is what the law says. I don't think the administration was faithful to that.    It is interesting, you have Hamas and Fatah, they are going to go and accuse Israel of war crimes, and yet they have been conducting terror attacks, suicide attacks, rocket attacks, using human shields. When Israel tries to defend itself, they have consistently violated international law. So it is a curious thing to do. I think the reason that they are doing it is because they see that Israel is under siege by hostile forces, now Hezbollah even more so. And I think this effort is designed to impose political costs on Israel for defending itself against attacks by a group that desire Israel's destruction.    And if you can launch attacks from Gaza, and then when Israel responds, the world blames Israel, then they may not be willing to respond as forcefully as they need to to defend their citizens. So we should call this gambit what it is, and we should respond with the power of the purse.</t>
   </si>
   <si>
@@ -76,6 +97,12 @@
     <t>412470</t>
   </si>
   <si>
+    <t>Cicilline</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Chairman Ros-Lehtinen and Ranking Member Deutch, for calling this timely hearing today.    And thank you to our witnesses for offering your testimony.    We know that lasting peace will only come about as a result of a direct set of negotiations that ultimately lead to a two-state solution. This is the only viable way to resolve the conflict between Israel and the Palestinian people, not through unilateral action. The breakdown of talks led by Secretary Kerry and the subsequent military conflict last summer were extremely disappointing. And the Palestinian decision to form a unity government with Hamas, a terrorist organization, and then to pursue recognition at international institutions, including the ICC, in complete disregard of their agreements made in accordance with the Oslo Peace Accords has seriously jeopardized the possibility of a peaceful solution.    I also fear this move, and the inevitable reaction by Israel and ultimately the United States if a case does move forward, will jeopardize the viability of the Palestinian Authority leading to a dangerous power vacuum in the Palestinian territories.    I look forward to the testimony of our witnesses and hope that we can get some clarity on what this development means for the future of U.S. relations with Israel and the Palestinian Authority.    I thank you, and I yield back.</t>
   </si>
   <si>
@@ -85,6 +112,12 @@
     <t>412525</t>
   </si>
   <si>
+    <t>Yoho</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Madam Chair.    I look forward to hearing from the panel with concrete suggestions on how we can change our policy so we don't have this meeting next year talking about the same things. We need a paradigm shift, and I look forward to hearing from you your suggestions so we can implement that and talk about baseball next time you come here.</t>
   </si>
   <si>
@@ -94,6 +127,12 @@
     <t>412652</t>
   </si>
   <si>
+    <t>Boyle</t>
+  </si>
+  <si>
+    <t>Brendan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Boyle. As a new member, I have to learn to hit the button that says talk.    Thank you, Madam Chair and also Ranking Member Deutch.    I would just briefly say that with the ICC application, something that has happened in the last several months that deeply concerns me is the increase in an effort in the international community to isolate and stigmatize Israel. I am deeply concerned that this latest effort is merely yet another attempt in this long-going campaign, especially by those countries, not the United States, but other countries in Europe and elsewhere that are otherwise allies of the U.S. So I am very interested in what we can do as a country to stand up for Israel, to stand up for human rights of all people, and to ensure that the ICC isn't corrupted and used and abused in a way that is really just about bashing Israel. Thank you.</t>
   </si>
   <si>
@@ -103,6 +142,12 @@
     <t>412604</t>
   </si>
   <si>
+    <t>Clawson</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you for coming today and sharing your time and expertise, and I really appreciate it, and I am looking forward to what you have to say about security in the region.    You know, as I read about this process, it feels unclear to me that we are going to be more secure tomorrow than we are today on either side of the conflict, and that really is the bottom line. If more people die because of this process, then what are we doing? So I am really interested to hear what you all have to say about everybody's security. There is just too much dying. Thank you.</t>
   </si>
   <si>
@@ -112,6 +157,12 @@
     <t>412560</t>
   </si>
   <si>
+    <t>Meng</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Meng. Thank you, Madam Chair and Ranking Member Deutch for calling this hearing and our distinguished witnesses for joining us today. In pursuing legal proceedings against Israel in the International Criminal Court, the Palestinian Authority could do irreparable damage to the peace process and escalate the conflict. Furthermore, I am concerned that the PA's actions here contravene both international law and the spirit of existing agreements between Israel and the PA. We must be clear that joining the ICC is not a viable approach for the Palestinians. I look forward to today's testimony, particularly that relating to the legal questions here. I yield back.</t>
   </si>
   <si>
@@ -121,6 +172,12 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Chairwoman Ros-Lehtinen and Ranking Member Deutch, for hosting this important hearing, and thanks to each of our panelists for being here today.    Time and time again the world has seen over 3,000 terrorist rocket attacks which originate from Palestinian-backed terror organization Hamas. As we discuss Palestine's desire to become more integrated within the international community, it should stop terrorism against Israeli women and children. In an effort to bring many of these actions into light, the Web site, Palestinian Media Watch, palwatch.org, does an excellent job of highlighting instances of aggression toward Israel which otherwise may not be told. I support this Web site in its mission.    The U.S. must stand firmly with Israel, our strongest ally in the region. And I fully support Prime Minister Benjamin Netanyahu as he seeks to promote peace in the region.</t>
   </si>
   <si>
@@ -130,6 +187,12 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weber. Thank you, Madam Chair. I have been following those events as well, and the gentleman from South Carolina is correct. It seems that the majority, there has been a lot of rockets aimed at Israel. They seem to be going that direction. So those who are crying foul, may indeed be acting the most foul, if I can use that play on words. So I am looking forward to this discussion and see that we do what we can to protect our ally.</t>
   </si>
   <si>
@@ -139,6 +202,12 @@
     <t>412646</t>
   </si>
   <si>
+    <t>Zeldin</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Zeldin. Thank you, Madam Chairwoman and Ranking Member Deutch, my mother's Congressman, Congressman Deutch. I thank you for holding this hearing today.    And my background before going into elected office was in the military, and first I was a military intelligence officer and then a JAG officer. And in our preparations, whether it is Iraq or Afghanistan or elsewhere, we focus on rules of law, rules of engagement, law of war. We are used to a conventional fight in the past, and we have a doctrine that should be respected when there is war. And the fact that you have Hamas living amongst neighbors, women and children, when you have an important, proportionate response, collateral damage ends up increasing when the threat lives with women and children. And I think that one of the things that we really need to tackle in the dialogue and the conflict between Israel and the conversation with the Palestinian Authority is the unnecessary collateral damage that is taking place. And the Palestinian Authority has a responsibility to route that out from within their ranks, and Israel has a responsibility as well. All of us do, whenever we are engaged in any type of a conflict.    But the amount of collateral damage and civilian deaths taking place across the borders from Israel is a responsibility of the Palestinian Authority to do more for Hamas not to live amongst the ranks of the women and children.    I thank you again, Chairwoman, for doing this hearing.</t>
   </si>
   <si>
@@ -148,6 +217,12 @@
     <t>412272</t>
   </si>
   <si>
+    <t>Connolly</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Connolly. I thank the chair. I am glad to have this panel and this hearing. I just want to say I probably am somewhat demure from some of my colleagues with respect to the necessity of continuing to provide economic development assistance to the Palestinian Authority.    But having said that, Congress did put conditions on that aid last year, and those conditions have to do with the whole question of the ICC. And I know the State Department is reviewing as we speak whether that provision is now triggered. So hopefully we can persuade the Palestinian Authority that unilateral action is not in its best interest, nor ours, and that as we move forward, it has to be in the context of a broader peace negotiation. And I would hope that at this hearing we could illuminate that issue and have more clarity as to what the U.S. policy should be moving forward.    With that, I yield back.</t>
   </si>
   <si>
@@ -163,6 +238,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Schanzer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Schanzer. Chairman Ros-Lehtinen, Ranking Member Deutch, members of the committee. On behalf of FDD, thank you for inviting me to testify today.    After a decade of lobbying the international community for recognition at the U.N., the Palestinians are now poised to leverage their gains and wage lawfare at the International Criminal Court. The goal for Palestinian President Mahmoud Abbas has been the same since he launched his diplomatic campaign in 2005, and that is to force the Israelis to relinquish territory or other meaningful concessions and to do so outside the scope of bilateral negotiations.    The dangers of this campaign cannot be understated. For one, these efforts are not likely to resolve the conflict peacefully. Rather, they will keep the embers of conflict glowing. More importantly, while communication and cooperation still exist between Ramallah and Washington, it is clear that Abbas and his lieutenants no longer feel beholden to the United States despite the hundreds of millions of dollars in assistance we provide every year.    Madam Chairman, threats to cut assistance to the Palestinian Authority have not had the desired impact in recent years. The reason for this is simple. Washington is dependent upon the PA for continued security cooperation with Israel. Abbas knows this, and this is why he feels comfortable testing the patience of legislators and the President.    There are, however, steps that we can take to reassert American leverage in the West Bank, protect American interests, empower new moderate Palestinian leadership, and safeguard Israeli security concerns.    First, Congress should strongly consider establishing a lawfare office similar to that established by Israel. Such an office can help the U.S. Government battle lawfare against us in both defense of U.S. officials and perhaps even our allies as well. Along these lines, we can leverage our Article 98 agreements with foreign governments. The U.S. Government already has about 100 of these agreements which ensure that U.S. persons are not surrendered to the jurisdiction of the ICC. Congress should ensure that the U.S. enters into as many of these agreements as possible and perhaps even modify them to include its key allies, such as Israel.    In the meantime, we have to deter the Palestinians from their current course. One way to do that is to work with our intelligence community to declassify information about Palestine terrorism, illicit activity, and human rights abuses dating back to November 29, 2012, when the U.N. General Assembly recognized Palestine as a non-member observer state. This would send a message to the Palestine leadership that it is just as susceptible, if not more so, to ICC prosecution.    Congress must also take steps to weaken the PLO. It is the PLO that is pursuing Israel at the ICC, and it is the PLO that is waging the diplomatic campaign at the U.N. Moreover, the PLO still has terrorist groups under its umbrella. Its leaders are unelected. Its decisionmaking is opaque, and its finances are obscured from the public eye. Its very existence enables a dysfunctional system. At any given time, we don't know whether it is the PLO, the Fatah faction, or the PA that is speaking in the Palestinians' in the name. If the goal is to hold the Palestinian leadership responsible for its actions, it is time to empower the Palestinian Government we seek to engage and to make the PLO obsolete. To that end we must shut down the PLO Embassy in Washington and to take steps to weaken the organization worldwide.    In addition, we should make plans for Mahmoud Abbas to go. He is a huge part of the problem. Once considered a reformer, he is now 10 years into a 5-year Presidential term. He is the head of the Fatah faction and the PLO. So long as he maintains a stranglehold over the Palestinian political system, the Palestinians will be taken in by gimmicks like the U.N. recognition campaign and the ICC. We have to begin to plan for new elections.    However, we cannot only focus on the West Bank political structures. The Hamas-Fatah split remains a challenge that will encumber both regional peace and Palestinian reform. Hamas must be removed from the Gaza Strip and from the political process if change is to take root.    Finally, Washington must return to its role as arbiter of the peace process. I don't believe that peace between the current leaders is likely, nor do I believe that this administration has earned the trust of either side. However, Washington cannot abdicate its role as the honest broker. Once we return to that role, we will have an opportunity to call for a halt to all unilateral action and guide this conflict to a more constructive dynamic.    Thank you for the opportunity to testify today, and I look forward to answering your questions.</t>
   </si>
   <si>
@@ -172,6 +250,9 @@
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Professor, you are recognized. Thank you.</t>
   </si>
   <si>
+    <t>Kontorovich</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kontorovich. Madam Chairwoman, Ranking Member Deutch, honorable members of the committee, thank you for inviting me to testify. In my testimony today, I am going to focus on three issues: Why the Palestinian Authority's effort to join the International Criminal Court is dangerous, not just for Israel but equally for the United States; why the Court is likely to be biased toward Israel; and, finally, remedial options under United States law.    The Palestinian campaign in the ICC threatens not just Israel but U.S. diplomatic and security interests as well. Crucially, America like Israel, is not a member state of the International Criminal Court and has chosen to not subject itself to the court's jurisdiction. Thus America and Israel find themselves in the same boat in terms of wanting to avoid precedents that would allow other entities to forcibly subject them to ICC process.    There are five dangerous precedents that this could set. First of all, the Palestinians are seeking to establish a precedent where a majority vote of the General Assembly is all it takes to secure jurisdiction over a non-member state. That is an extremely dangerous precedent for the United States. The United States in creating the United Nations chose not to give any binding powers to the General Assembly, but rather to screen all of those through the Security Council. The notion that a simple majority vote of the General Assembly could create jurisdiction over the U.S. servicemen is a very dangerous one. One could imagine Boko Haram or ISIS petitioning the General Assembly and, on a good day, getting a majority vote to exercise jurisdiction over U.S. troops.    All of the particular legal issues that the Palestinians are seeking to establish and need to win on at the ICC are ones that would be very dangerous for the United States. I would like to remind the subcommittee that the United States is currently subject to a preliminary investigation about the role of U.S. troops in the treatment of detainees in Afghanistan. It has been thought there are some major principles that insulate Western democracies like the United States, the notions of complementarity and gravity.    Complementarity means that if a country conducts its own investigations or has a well-functioning legal system that investigates its troops, it does not have to worry about the ICC stepping in. Now the question is what level of abstraction you apply complementarity on. So while the United States is a well-functioning democracy, if it chooses not to investigate every particular incident, if it chooses not to investigate the roles of senior civilian leaders in alleged incidents, and the ICC chooses to step in, this would be something the United States would be very uncomfortable with. Yet nonetheless, that is exactly what the Palestinians are trying to establish vis-aa-vis Israel. Israel also has a well-functioning criminal justice system. If the ICC is to take any steps forward, it would require defining complementarity at such a low level that the United States also would not be insulated by this principle.    Then there is the principle of gravity, that the ICC is reserved for the worst of the worst international crimes, mass atrocities, which its charter refers to. As a result, isolated or lower level crimes, the ICC can't deal with because in a world of millions killed in conflicts around the world, obviously the ICC can't deal with everything and needs to prioritize. The United States and other Western democracies have been shielded by this principle. This would be a principle that prevents an ICC investigation of alleged abuses in Afghanistan.</t>
   </si>
   <si>
@@ -187,6 +268,9 @@
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Ms. Pletka is recognized.</t>
   </si>
   <si>
+    <t>Pletka</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Pletka. Thank you, Madam Chairwoman. It is a pleasure to be back.</t>
   </si>
   <si>
@@ -197,6 +281,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Mr. Makovsky.</t>
+  </si>
+  <si>
+    <t>Makovsky</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Makovsky. Thank you very much, Madam Chairwoman Ros-Lehtinen, Ranking Member Deutch, members of the committee. Thank you for inviting me here today.    First, it is worth focusing on what is at stake for the Palestinians and for the ICC itself. Clearly, the Palestinian move for membership at the ICC is deepening the chasm between Israelis and Palestinians. The move is part of a Palestinian two-prong international strategy: Involve the U.N. Security Council; and go to the ICC.    For now, they have given up on direct talks with Israel. Of course, this is wrong. Direct talks are the only way to solve the problem and to promote peace. For the ICC, they also seem to be veering off course. For its part, the original ICC purpose has been to deal with mass atrocities and not serve as another politicized U.N. agency. If the ICC wants to be taken seriously, it should remain true to its origins and avoid politicization.    So what has just happened? When PA leader Mahmud Abbas signed the Rome Statute, he allowed for authority retroactive to June 13, just hours after three Israeli youths were kidnapped and subsequently murdered in the West Bank, to permit an investigation into last summer's Gaza war. ICC Prosecutor Fatou Bensouda announced a few weeks later that she would launch a preliminary examination without first determining if the PA is eligible to raise such a claim. Only Bensouda could determine if and when the preliminary examination ends, and transitions to a full-fledged investigation.    While the ICC previously inserted itself in the Congo war, there there were over 5 million deaths. In Gaza, the death toll was approximately 2,000 Palestinians, half of which Israel believes to be terrorists, and 65 Israeli soldiers.    The effect of this Palestinian approach is further deterioration in the relationship between Prime Minister Benjamin Netanyahu and President Abbas. In protest of the PA strategy, Israel is withholding $127 million each month in Palestinian tax revenue, which is unlikely to be released until a new Israeli Government is formed, perhaps in late May. The Israeli move, it should point out, given that it is a monthly move, is financially more consequential than anything the United States is undertaking.    Historically, the ICC investigations could take years. And so far, only two Congolese warlords have been convicted.    Israel's situation, needless to say, is dramatically different. It is a democracy. The ICC has no jurisdiction where there is a functioning judiciary. Following the Gaza war, Israel is in the process of indicting four Israeli soldiers for potential abuses. And the IDF has invited all NGOs--all--to come forward with evidence. In short, Israel's democratic judicial process negates the need for the ICC to step in. The consequences against Israel are not just going to be felt down the road. The mere investigation of Israel by the ICC is designed to put Israel under a cloud and to give a boost to the boycott, divest, and sanction--BDS--movement. Throughout the Gaza war Israel----</t>
@@ -746,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,7 +841,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,2525 +863,2983 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
       <c r="H11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
       <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
       <c r="H15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
       <c r="H17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
       <c r="H19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
       <c r="H21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
       <c r="H23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>67</v>
+      </c>
       <c r="H25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G43" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>48</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="G52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
       <c r="H54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G55" t="s">
+        <v>89</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
       <c r="H56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G57" t="s">
+        <v>89</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
       <c r="H58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G59" t="s">
+        <v>74</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
       <c r="H60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
       <c r="H61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
       <c r="H63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G64" t="s">
+        <v>84</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
       <c r="H65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>48</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G66" t="s">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
       <c r="H67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>48</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>22</v>
+      </c>
       <c r="H69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G70" t="s">
+        <v>74</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>22</v>
+      </c>
       <c r="H71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
       <c r="H73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>48</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G74" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>48</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G75" t="s">
+        <v>89</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>48</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G76" t="s">
+        <v>84</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>48</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G77" t="s">
+        <v>89</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
       <c r="H78" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G79" t="s">
+        <v>78</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
       <c r="H80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G82" t="s">
+        <v>32</v>
+      </c>
       <c r="H82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I82" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>48</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G83" t="s">
+        <v>74</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G84" t="s">
+        <v>32</v>
+      </c>
       <c r="H84" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>48</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G85" t="s">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G86" t="s">
+        <v>32</v>
+      </c>
       <c r="H86" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I86" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>48</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G87" t="s">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G88" t="s">
+        <v>32</v>
+      </c>
       <c r="H88" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I88" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>48</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G89" t="s">
+        <v>84</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G90" t="s">
+        <v>32</v>
+      </c>
       <c r="H90" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I90" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>48</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G91" t="s">
+        <v>84</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G92" t="s">
+        <v>32</v>
+      </c>
       <c r="H92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I92" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>48</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G93" t="s">
+        <v>89</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G94" t="s">
+        <v>32</v>
+      </c>
       <c r="H94" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>48</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G95" t="s">
+        <v>89</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G96" t="s">
+        <v>32</v>
+      </c>
       <c r="H96" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>48</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G97" t="s">
+        <v>78</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G98" t="s">
+        <v>32</v>
+      </c>
       <c r="H98" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I98" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G100" t="s">
+        <v>37</v>
+      </c>
       <c r="H100" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I100" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>48</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G101" t="s">
+        <v>89</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>25</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G102" t="s">
+        <v>37</v>
+      </c>
       <c r="H102" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>48</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G103" t="s">
+        <v>74</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G104" t="s">
+        <v>37</v>
+      </c>
       <c r="H104" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I104" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="G105" t="s">
+        <v>89</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93158.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93158.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Ros-Lehtinen</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412385</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Deutch</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
   </si>
   <si>
     <t>412526</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>DeSantis</t>
@@ -833,7 +845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,7 +853,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,2980 +878,3228 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" t="s">
-        <v>89</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" t="s">
-        <v>89</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
-      </c>
-      <c r="G46" t="s">
-        <v>78</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" t="s">
-        <v>74</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" t="s">
-        <v>84</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>88</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>88</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" t="s">
-        <v>89</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>93</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
-      </c>
-      <c r="G57" t="s">
-        <v>89</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" t="s">
-        <v>74</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>78</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H61" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I61" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G62" t="s">
-        <v>84</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>88</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H63" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I63" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J63" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" t="s">
-        <v>84</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>88</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>73</v>
-      </c>
-      <c r="G66" t="s">
-        <v>78</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G67" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H67" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I67" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>73</v>
-      </c>
-      <c r="G68" t="s">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>82</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G69" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H69" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>73</v>
-      </c>
-      <c r="G70" t="s">
-        <v>74</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G71" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H71" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I71" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H73" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I73" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>73</v>
-      </c>
-      <c r="G74" t="s">
-        <v>78</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>82</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>73</v>
-      </c>
-      <c r="G75" t="s">
-        <v>89</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>93</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>73</v>
-      </c>
-      <c r="G76" t="s">
-        <v>84</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>88</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>73</v>
-      </c>
-      <c r="G77" t="s">
-        <v>89</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>93</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H78" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I78" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J78" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>73</v>
-      </c>
-      <c r="G79" t="s">
-        <v>78</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>82</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H80" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I80" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H82" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I82" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J82" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>73</v>
-      </c>
-      <c r="G83" t="s">
-        <v>74</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>78</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H84" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I84" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J84" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>73</v>
-      </c>
-      <c r="G85" t="s">
-        <v>74</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H86" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I86" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J86" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>73</v>
-      </c>
-      <c r="G87" t="s">
-        <v>78</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>82</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H88" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I88" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>73</v>
-      </c>
-      <c r="G89" t="s">
-        <v>84</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>88</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H90" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I90" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J90" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>73</v>
-      </c>
-      <c r="G91" t="s">
-        <v>84</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>88</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H92" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I92" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J92" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>73</v>
-      </c>
-      <c r="G93" t="s">
-        <v>89</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>93</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H94" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I94" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J94" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>73</v>
-      </c>
-      <c r="G95" t="s">
-        <v>89</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>93</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H96" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I96" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J96" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>73</v>
-      </c>
-      <c r="G97" t="s">
-        <v>78</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>82</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H98" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I98" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J98" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H100" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I100" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J100" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>73</v>
-      </c>
-      <c r="G101" t="s">
-        <v>89</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>93</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H102" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I102" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J102" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>73</v>
-      </c>
-      <c r="G103" t="s">
-        <v>74</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>78</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H104" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I104" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J104" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>73</v>
-      </c>
-      <c r="G105" t="s">
-        <v>89</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>93</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>156</v>
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
